--- a/doc/flowers.xlsx
+++ b/doc/flowers.xlsx
@@ -10,7 +10,7 @@
     <sheet name="FlowerTable(yes)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FlowerTable(yes)'!$A$2:$M$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FlowerTable(yes)'!$A$2:$O$12</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,11 +227,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"float","name":"fNum"}</t>
+          <t xml:space="preserve">{"type":"float","name":"f_time03"}</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1">
+    <comment ref="N2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -297,12 +297,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"float","name":"f_time01"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"float","name":"f_time02"}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>xxx</t>
   </si>
@@ -337,7 +363,13 @@
     <t>品质</t>
   </si>
   <si>
-    <t>数值</t>
+    <t>小苗</t>
+  </si>
+  <si>
+    <t>大苗</t>
+  </si>
+  <si>
+    <t>成熟</t>
   </si>
   <si>
     <t>礼包ID</t>
@@ -465,9 +497,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -494,13 +526,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -552,6 +577,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -575,14 +623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -599,6 +639,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -624,26 +671,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -654,37 +686,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,13 +770,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,127 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,6 +877,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -863,17 +910,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,6 +926,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,26 +977,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +985,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,133 +997,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1486,14 +1518,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1502,9 +1534,9 @@
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="7.375" style="1" customWidth="1"/>
-    <col min="6" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="15.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="6" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="15.25" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -1512,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1552,16 +1584,22 @@
       <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>99</v>
@@ -1570,39 +1608,45 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>99</v>
@@ -1611,39 +1655,45 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>99</v>
@@ -1652,39 +1702,45 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
@@ -1693,39 +1749,45 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M6" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>99</v>
@@ -1734,39 +1796,45 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1">
-        <v>20000</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>99</v>
@@ -1775,39 +1843,45 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1">
-        <v>50000</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>99</v>
@@ -1816,39 +1890,45 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9" s="1">
-        <v>138000</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>99</v>
@@ -1857,39 +1937,45 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10" s="1">
-        <v>200000</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1">
         <v>99</v>
@@ -1898,39 +1984,45 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K11" s="1">
-        <v>500000</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1">
         <v>99</v>
@@ -1939,32 +2031,38 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K12" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
+        <v>2400</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7200</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M12"/>
+  <autoFilter ref="A2:O12"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
